--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="16845" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="历年卫星数量数据" sheetId="2" r:id="rId1"/>
@@ -1203,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2199,6 +2199,26 @@
         <v>648</v>
       </c>
     </row>
+    <row r="50" ht="14.25" spans="1:6">
+      <c r="A50" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="1">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16845" windowHeight="6210"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="历年卫星数量数据" sheetId="2" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1244,19 +1244,19 @@
         <v>1978</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -1264,7 +1264,7 @@
         <v>1979</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1284,7 +1284,7 @@
         <v>1980</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -1304,7 +1304,7 @@
         <v>1981</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -2204,19 +2204,19 @@
         <v>2026</v>
       </c>
       <c r="B50" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F49"/>
+      <selection activeCell="A2" sqref="A2:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1244,16 +1244,16 @@
         <v>1978</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1264,16 +1264,16 @@
         <v>1979</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1284,16 +1284,16 @@
         <v>1980</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>1981</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1324,16 +1324,16 @@
         <v>1982</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>1983</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1364,16 +1364,16 @@
         <v>1984</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>1985</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1404,16 +1404,16 @@
         <v>1986</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>1987</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1444,16 +1444,16 @@
         <v>1988</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1464,16 +1464,16 @@
         <v>1989</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1484,16 +1484,16 @@
         <v>1990</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>1991</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1524,16 +1524,16 @@
         <v>1992</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1544,16 +1544,16 @@
         <v>1993</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1564,16 +1564,16 @@
         <v>1994</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>1995</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>1996</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1624,16 +1624,16 @@
         <v>1997</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1644,16 +1644,16 @@
         <v>1998</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1664,19 +1664,19 @@
         <v>1999</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:6">
@@ -1684,16 +1684,16 @@
         <v>2000</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>2001</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1724,16 +1724,16 @@
         <v>2002</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1744,16 +1744,16 @@
         <v>2003</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         <v>2004</v>
       </c>
       <c r="B28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
       <c r="E28" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1784,16 +1784,16 @@
         <v>2005</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>2006</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>2007</v>
       </c>
       <c r="B31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>2008</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1867,13 +1867,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>2010</v>
       </c>
       <c r="B34" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>2011</v>
       </c>
       <c r="B35" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1924,13 +1924,13 @@
         <v>2012</v>
       </c>
       <c r="B36" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>24</v>
@@ -1944,16 +1944,16 @@
         <v>2013</v>
       </c>
       <c r="B37" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
         <v>32</v>
-      </c>
-      <c r="D37" s="1">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1">
-        <v>21</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>16</v>
       </c>
       <c r="C38" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>2015</v>
       </c>
       <c r="B39" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>2016</v>
       </c>
       <c r="B40" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>2017</v>
       </c>
       <c r="B41" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
         <v>20</v>
-      </c>
-      <c r="E41" s="1">
-        <v>21</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>2018</v>
       </c>
       <c r="B42" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2064,19 +2064,19 @@
         <v>2019</v>
       </c>
       <c r="B43" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F43" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:6">
@@ -2084,19 +2084,19 @@
         <v>2020</v>
       </c>
       <c r="B44" s="1">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F44" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:6">
@@ -2104,19 +2104,19 @@
         <v>2021</v>
       </c>
       <c r="B45" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -2124,19 +2124,19 @@
         <v>2022</v>
       </c>
       <c r="B46" s="1">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:6">
@@ -2144,19 +2144,19 @@
         <v>2023</v>
       </c>
       <c r="B47" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E47" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F47" s="1">
-        <v>618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:6">
@@ -2164,19 +2164,19 @@
         <v>2024</v>
       </c>
       <c r="B48" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:6">
@@ -2184,40 +2184,28 @@
         <v>2025</v>
       </c>
       <c r="B49" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D49" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:6">
-      <c r="A50" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -668,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +677,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F49"/>
+      <selection activeCell="D2" sqref="D2:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1239,973 +1242,1125 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>303</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>232</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>221</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>252</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>1978</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>174</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>245</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>178</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B22" s="3">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>274</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>57</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>250</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>147</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>125</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>38</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>82</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>99</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3">
+        <v>64</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>34</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>29</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B35" s="3">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>49</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>48</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B36" s="3">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>79</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>59</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>81</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="3">
+        <v>17</v>
+      </c>
+      <c r="C38" s="3">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>75</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2600</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>132</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B40" s="3">
         <v>32</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C40" s="3">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>91</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B41" s="3">
+        <v>24</v>
+      </c>
+      <c r="C41" s="3">
+        <v>197</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>816</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B42" s="3">
+        <v>80</v>
+      </c>
+      <c r="C42" s="3">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>167</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B43" s="3">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3">
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>89</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="2">
-        <v>1979</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="E43" s="3">
+        <v>44</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B44" s="3">
+        <v>76</v>
+      </c>
+      <c r="C44" s="3">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>39</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B45" s="3">
+        <v>103</v>
+      </c>
+      <c r="C45" s="3">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>46</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B46" s="3">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3">
+        <v>60</v>
+      </c>
+      <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E46" s="3">
+        <v>161</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B47" s="3">
+        <v>39</v>
+      </c>
+      <c r="C47" s="3">
+        <v>617</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>47</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="3">
+        <v>39</v>
+      </c>
+      <c r="C48" s="3">
+        <v>51</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="3">
+        <v>40</v>
+      </c>
+      <c r="C49" s="3">
+        <v>78</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="3">
+        <v>117</v>
+      </c>
+      <c r="C50" s="3">
+        <v>218</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3">
+        <v>53</v>
+      </c>
+      <c r="F50" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B51" s="3">
+        <v>82</v>
+      </c>
+      <c r="C51" s="3">
+        <v>287</v>
+      </c>
+      <c r="D51" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>87</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="2">
-        <v>1980</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="E51" s="3">
+        <v>126</v>
+      </c>
+      <c r="F51" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="3">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3">
+        <v>536</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>370</v>
+      </c>
+      <c r="F52" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="3">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3">
+        <v>909</v>
+      </c>
+      <c r="D53" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>89</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="2">
-        <v>1981</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="E53" s="3">
+        <v>40</v>
+      </c>
+      <c r="F53" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="3">
+        <v>844</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1642</v>
+      </c>
+      <c r="D54" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="E54" s="3">
+        <v>26</v>
+      </c>
+      <c r="F54" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B55" s="3">
+        <v>197</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2101</v>
+      </c>
+      <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="E55" s="3">
+        <v>117</v>
+      </c>
+      <c r="F55" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B56" s="3">
+        <v>908</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2127</v>
+      </c>
+      <c r="D56" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <v>101</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="2">
-        <v>1983</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="E56" s="3">
+        <v>105</v>
+      </c>
+      <c r="F56" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43</v>
+      </c>
+      <c r="C57" s="3">
+        <v>306</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>98</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="2">
-        <v>1984</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>97</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="2">
-        <v>1985</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>98</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:6">
-      <c r="A10" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>91</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:6">
-      <c r="A11" s="2">
-        <v>1987</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>95</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>90</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:6">
-      <c r="A13" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>74</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>75</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>59</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>48</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:6">
-      <c r="A19" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:6">
-      <c r="A20" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:6">
-      <c r="A21" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:6">
-      <c r="A22" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:6">
-      <c r="A23" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>26</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:6">
-      <c r="A24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:6">
-      <c r="A25" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:6">
-      <c r="A27" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:6">
-      <c r="A28" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:6">
-      <c r="A29" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>26</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:6">
-      <c r="A30" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>22</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>25</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:6">
-      <c r="A31" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B31" s="1">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1">
-        <v>26</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="1:6">
-      <c r="A32" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B32" s="1">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>27</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:6">
-      <c r="A33" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1">
-        <v>29</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:6">
-      <c r="A34" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B34" s="1">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:6">
-      <c r="A35" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B35" s="1">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:6">
-      <c r="A36" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B36" s="1">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1">
-        <v>24</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:6">
-      <c r="A37" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B37" s="1">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1">
-        <v>19</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1">
-        <v>32</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:6">
-      <c r="A38" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B38" s="1">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1">
-        <v>23</v>
-      </c>
-      <c r="D38" s="1">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1">
-        <v>32</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:6">
-      <c r="A39" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B39" s="1">
-        <v>19</v>
-      </c>
-      <c r="C39" s="1">
-        <v>20</v>
-      </c>
-      <c r="D39" s="1">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1">
-        <v>29</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:6">
-      <c r="A40" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B40" s="1">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1">
-        <v>22</v>
-      </c>
-      <c r="D40" s="1">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:6">
-      <c r="A41" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B41" s="1">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1">
-        <v>29</v>
-      </c>
-      <c r="D41" s="1">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:6">
-      <c r="A42" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B42" s="1">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1">
-        <v>34</v>
-      </c>
-      <c r="D42" s="1">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1">
-        <v>17</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:6">
-      <c r="A43" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B43" s="1">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1">
-        <v>27</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1">
-        <v>25</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:6">
-      <c r="A44" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B44" s="1">
-        <v>39</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1">
-        <v>17</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:6">
-      <c r="A45" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1">
-        <v>51</v>
-      </c>
-      <c r="D45" s="1">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1">
-        <v>25</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:6">
-      <c r="A46" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B46" s="1">
-        <v>64</v>
-      </c>
-      <c r="C46" s="1">
-        <v>78</v>
-      </c>
-      <c r="D46" s="1">
-        <v>6</v>
-      </c>
-      <c r="E46" s="1">
-        <v>21</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:6">
-      <c r="A47" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B47" s="1">
-        <v>67</v>
-      </c>
-      <c r="C47" s="1">
-        <v>116</v>
-      </c>
-      <c r="D47" s="1">
-        <v>17</v>
-      </c>
-      <c r="E47" s="1">
-        <v>19</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:6">
-      <c r="A48" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B48" s="1">
-        <v>68</v>
-      </c>
-      <c r="C48" s="1">
-        <v>145</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>15</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:6">
-      <c r="A49" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B49" s="1">
-        <v>35</v>
-      </c>
-      <c r="C49" s="1">
-        <v>75</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D57"/>
+      <selection activeCell="A2" sqref="A2:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1244,19 +1244,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1264,33 +1264,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1304,16 +1304,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1324,36 +1324,36 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1384,19 +1384,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1404,87 +1404,87 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>1982</v>
+        <v>1992</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1504,19 +1504,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1524,39 +1524,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1564,19 +1564,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>14</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1584,19 +1584,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>1987</v>
+        <v>1997</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1604,19 +1604,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1624,79 +1624,79 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B22" s="3">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1704,279 +1704,279 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="B30" s="3">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>64</v>
+      </c>
+      <c r="F30" s="3">
         <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>82</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="B31" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
       </c>
       <c r="E31" s="3">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B32" s="3">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3">
         <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>34</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="B34" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="3">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="B35" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B36" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B38" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1984,383 +1984,263 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="B39" s="3">
-        <v>2600</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="B40" s="3">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="3">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="B41" s="3">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="D41" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3">
-        <v>816</v>
+        <v>14</v>
       </c>
       <c r="F41" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B42" s="3">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
-        <v>30</v>
+        <v>528</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C43" s="3">
-        <v>38</v>
+        <v>802</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F43" s="3">
-        <v>3</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C44" s="3">
-        <v>36</v>
+        <v>1617</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F44" s="3">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="B45" s="3">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="C45" s="3">
-        <v>46</v>
+        <v>2084</v>
       </c>
       <c r="D45" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F45" s="3">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="B46" s="3">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="C46" s="3">
-        <v>60</v>
+        <v>2080</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="F46" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="B47" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="3">
-        <v>617</v>
+        <v>300</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B48" s="3">
-        <v>39</v>
-      </c>
-      <c r="C48" s="3">
-        <v>51</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>47</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B49" s="3">
-        <v>40</v>
-      </c>
-      <c r="C49" s="3">
-        <v>78</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>36</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="3">
-        <v>117</v>
-      </c>
-      <c r="C50" s="3">
-        <v>218</v>
-      </c>
-      <c r="D50" s="3">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3">
-        <v>53</v>
-      </c>
-      <c r="F50" s="3">
-        <v>9</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B51" s="3">
-        <v>82</v>
-      </c>
-      <c r="C51" s="3">
-        <v>287</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>126</v>
-      </c>
-      <c r="F51" s="3">
-        <v>11</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B52" s="3">
-        <v>60</v>
-      </c>
-      <c r="C52" s="3">
-        <v>536</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>370</v>
-      </c>
-      <c r="F52" s="3">
-        <v>104</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B53" s="3">
-        <v>119</v>
-      </c>
-      <c r="C53" s="3">
-        <v>909</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
-        <v>40</v>
-      </c>
-      <c r="F53" s="3">
-        <v>284</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B54" s="3">
-        <v>844</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1642</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
-        <v>26</v>
-      </c>
-      <c r="F54" s="3">
-        <v>113</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B55" s="3">
-        <v>197</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2101</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>117</v>
-      </c>
-      <c r="F55" s="3">
-        <v>147</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B56" s="3">
-        <v>908</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2127</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3">
-        <v>105</v>
-      </c>
-      <c r="F56" s="3">
-        <v>28</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B57" s="3">
-        <v>43</v>
-      </c>
-      <c r="C57" s="3">
-        <v>306</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F47"/>
+      <selection activeCell="A47" sqref="$A47:$XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2143,24 +2143,12 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B47" s="3">
-        <v>38</v>
-      </c>
-      <c r="C47" s="3">
-        <v>300</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>年份</t>
+    <t>Year</t>
   </si>
   <si>
     <t>中国</t>
-  </si>
-  <si>
-    <t>美国</t>
   </si>
   <si>
     <t>欧洲</t>
   </si>
   <si>
     <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>美国</t>
   </si>
   <si>
     <t>英国</t>
@@ -1206,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="$A47:$XFD47"/>
+      <selection activeCell="A2" sqref="$A2:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1244,19 +1244,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1264,19 +1264,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>17</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1284,19 +1284,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1304,19 +1304,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1324,39 +1324,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1364,39 +1364,39 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1404,79 +1404,79 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1484,79 +1484,79 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1564,39 +1564,39 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>14</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1604,79 +1604,79 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -1684,59 +1684,59 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B26" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1744,119 +1744,119 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
       <c r="E27" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B28" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B30" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3">
         <v>2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B32" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -1864,19 +1864,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B33" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
         <v>20</v>
       </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
       <c r="E33" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -1884,19 +1884,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B34" s="3">
         <v>20</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -1904,331 +1904,303 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B35" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B36" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E36" s="3">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F36" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B37" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E37" s="3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F37" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B38" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E38" s="3">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B39" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C39" s="3">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F39" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B40" s="3">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="3">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F40" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B41" s="3">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C41" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E41" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F41" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B42" s="3">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3">
-        <v>528</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F42" s="3">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B43" s="3">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3">
-        <v>802</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E43" s="3">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F43" s="3">
-        <v>284</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="3">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3">
-        <v>1617</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E44" s="3">
-        <v>17</v>
+        <v>528</v>
       </c>
       <c r="F44" s="3">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>57</v>
+        <v>802</v>
       </c>
       <c r="F45" s="3">
-        <v>147</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="3">
+        <v>148</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>17</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1617</v>
+      </c>
+      <c r="F46" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="3">
+        <v>172</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>57</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2084</v>
+      </c>
+      <c r="F47" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
         <v>2024</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B48" s="3">
         <v>261</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3">
+        <v>91</v>
+      </c>
+      <c r="E48" s="3">
         <v>2080</v>
       </c>
-      <c r="D46" s="3">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3">
-        <v>91</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="F48" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="A49" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B49" s="3">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD9"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2187,16 +2187,16 @@
         <v>2025</v>
       </c>
       <c r="B49" s="3">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>

--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/历年各国卫星在轨数量.xlsx
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A49" sqref="$A49:$XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2183,24 +2183,12 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B49" s="3">
-        <v>72</v>
-      </c>
-      <c r="C49" s="3">
-        <v>5</v>
-      </c>
-      <c r="D49" s="3">
-        <v>13</v>
-      </c>
-      <c r="E49" s="3">
-        <v>174</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
